--- a/graphs_GA1.xlsx
+++ b/graphs_GA1.xlsx
@@ -8,13 +8,25 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\M. Shoaib\Desktop\Genetic_Algorithm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:11_{8A093852-9C1E-4D86-A4DD-8100303B1EC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13E4330B-DABD-46C9-862D-60DEA51A2CDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$A$2</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$A$3</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$B$1:$D$1</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Sheet1!$B$2:$D$2</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">Sheet1!$B$3:$D$3</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">Sheet1!$A$2</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">Sheet1!$A$3</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">Sheet1!$B$1:$D$1</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">Sheet1!$B$2:$D$2</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">Sheet1!$B$3:$D$3</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -36,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="8">
   <si>
     <t>UQGA</t>
   </si>
@@ -55,14 +67,27 @@
   <si>
     <t>(M/2)(Log(T))(Log(M))</t>
   </si>
+  <si>
+    <t>16x16 MIMO</t>
+  </si>
+  <si>
+    <t>BS_Antenna</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -89,9 +114,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -123,317 +149,71 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:autoTitleDeleted val="1"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:v>QGA</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet1!$B$1:$C$1</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>4x4 MIMO</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>8x8 MIMO</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$B$2:$C$2</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>63.39</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>126.791</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-FFA9-4017-B78D-FA1CEAB20B16}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$A$3</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>UQGA</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet1!$B$1:$C$1</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>4x4 MIMO</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>8x8 MIMO</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$B$3:$C$3</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>63.39</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>126.791</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-FFA9-4017-B78D-FA1CEAB20B16}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
-        <c:axId val="502245736"/>
-        <c:axId val="502239616"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="502245736"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="dk1"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="502239616"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="502239616"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Total Power</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" baseline="0"/>
-                  <a:t> Computation (mW)</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:r>
+              <a:rPr lang="en-US" sz="1600">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="dk1"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+              </a:rPr>
+              <a:t>Comparison of Average Number of Generations for UCGA and UQGA in MIMO Systems</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1600"/>
           </a:p>
-        </c:txPr>
-        <c:crossAx val="502245736"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="accent2">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="accent2">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="accent2">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent2"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
         <a:effectLst/>
       </c:spPr>
@@ -442,12 +222,9 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
+                <a:schemeClr val="dk1"/>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
@@ -457,59 +234,8 @@
           <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:autoTitleDeleted val="1"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
@@ -539,7 +265,19 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:cat>
             <c:numRef>
@@ -608,7 +346,19 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:cat>
             <c:numRef>
@@ -661,6 +411,7 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:marker val="1"/>
         <c:smooth val="0"/>
         <c:axId val="502237456"/>
         <c:axId val="502239256"/>
@@ -672,6 +423,61 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Number of Base Station Antennas</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -713,7 +519,8 @@
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
+        <c:lblOffset val="10"/>
+        <c:tickLblSkip val="1"/>
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
@@ -737,6 +544,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1100"/>
+                  <a:t> Average Number of Generations to Reach The Best Power/Scenario</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -770,7 +632,7 @@
         </c:txPr>
         <c:crossAx val="502237456"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
+        <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -795,7 +657,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -855,379 +717,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:autoTitleDeleted val="1"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="stacked"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$A$30</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>UCGA</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Sheet1!$B$29:$E$29</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$B$30:$E$30</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>6.8</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>8.25</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>15</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-F5C8-42B3-8481-91CC5B4B83FA}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$A$31</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>UQGA</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Sheet1!$B$29:$E$29</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$B$31:$E$31</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4.5999999999999996</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5.6</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-F5C8-42B3-8481-91CC5B4B83FA}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="551488296"/>
-        <c:axId val="551500536"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="551488296"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="0.00" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="551500536"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="551500536"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="0.00" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="551488296"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="zero"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -1613,7 +1103,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -2107,6 +1597,1158 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>Overall Transmit Power Usage</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="accent2">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="accent2">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="accent2">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent2"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:view3D>
+      <c:rotX val="15"/>
+      <c:rotY val="20"/>
+      <c:depthPercent val="100"/>
+      <c:rAngAx val="1"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:backWall>
+    <c:plotArea>
+      <c:layout/>
+      <c:bar3DChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>UCGA</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$1:$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>4x4 MIMO</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8x8 MIMO</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16x16 MIMO</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$2:$D$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>63.39</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>126.791</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>189.791</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-AC0D-4014-AA4E-575D47AC7543}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>UQGA</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$1:$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>4x4 MIMO</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8x8 MIMO</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16x16 MIMO</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$3:$D$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>63.39</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>126.791</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>189.791</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-AC0D-4014-AA4E-575D47AC7543}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:shape val="box"/>
+        <c:axId val="554606080"/>
+        <c:axId val="554610040"/>
+        <c:axId val="0"/>
+      </c:bar3DChart>
+      <c:catAx>
+        <c:axId val="554606080"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="554610040"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="554610040"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Total Power Computation (W)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="554606080"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>Comparison of Convergence Speed: UCGA vs UQGA</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1800"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="accent2">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="accent2">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="accent2">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent2"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$31</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>UCGA</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$30:$E$30</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$31:$E$31</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.25</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4DF3-462A-A679-C474FBF948B1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$32</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>UQGA</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$30:$E$30</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$32:$E$32</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.5999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-4DF3-462A-A679-C474FBF948B1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="593357336"/>
+        <c:axId val="593357696"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="593357336"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t> Number of Power Sets</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="593357696"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="593357696"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Average Number of Generations </a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="593357336"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -2308,7 +2950,7 @@
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -2811,7 +3453,7 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -2919,11 +3561,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -2934,11 +3571,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
@@ -2970,9 +3602,6 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -3843,7 +4472,496 @@
 </file>
 
 <file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="296">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="0" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="38100" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="8"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="major">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="2000" b="0" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -4345,543 +5463,27 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>603848</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>129396</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>576944</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>174172</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>214746</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>74962</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>77401</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Chart 3">
+        <xdr:cNvPr id="12" name="Chart 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{60D09AE2-ED3D-2D1A-A2B4-9539C5E60F0C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3E01602E-3420-AB38-C2CA-CFC851917606}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4902,22 +5504,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>71887</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>172526</xdr:rowOff>
+      <xdr:colOff>415142</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>90245</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>186906</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>21565</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>110342</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>98960</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="12" name="Chart 11">
+        <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3E01602E-3420-AB38-C2CA-CFC851917606}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{43D84A53-FB6E-7E2F-1840-D2E081238A52}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4937,23 +5539,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>272059</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>66789</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>265449</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>11370</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>32675</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>52413</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>324569</xdr:colOff>
+      <xdr:row>102</xdr:row>
+      <xdr:rowOff>29841</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="6" name="Chart 5">
+        <xdr:cNvPr id="5" name="Chart 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{228D5C37-4A31-7625-C0FE-D85FAF13FBC0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E6B58073-4D94-F802-24B8-792F49D751A6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4973,23 +5575,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>349828</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>24245</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>180258</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>92868</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>45028</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>131618</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>286774</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>57356</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
+        <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{43D84A53-FB6E-7E2F-1840-D2E081238A52}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{26A2095B-84E8-5E99-E185-DFBCD4554DFA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5009,23 +5611,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>80391</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>33142</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>456291</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>139511</xdr:colOff>
-      <xdr:row>81</xdr:row>
-      <xdr:rowOff>51613</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>179917</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>63501</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="Chart 4">
+        <xdr:cNvPr id="9" name="Chart 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E6B58073-4D94-F802-24B8-792F49D751A6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B9E48870-A341-4A39-D1ED-E497F6D1BF2C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5345,25 +5947,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="96" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="P32" sqref="P32"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="72" zoomScaleNormal="83" workbookViewId="0">
+      <selection activeCell="Y37" sqref="Y37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="1" max="1" width="14.5546875" customWidth="1"/>
     <col min="2" max="2" width="19.77734375" customWidth="1"/>
     <col min="3" max="3" width="19" customWidth="1"/>
+    <col min="4" max="4" width="14.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>1</v>
       </c>
       <c r="C1" t="s">
         <v>2</v>
       </c>
+      <c r="D1" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -5373,8 +5980,11 @@
       <c r="C2">
         <v>126.791</v>
       </c>
+      <c r="D2">
+        <v>189.791</v>
+      </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -5384,12 +5994,21 @@
       <c r="C3">
         <v>126.791</v>
       </c>
+      <c r="D3">
+        <v>189.791</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C5" s="2"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>7</v>
+      </c>
       <c r="B20" s="1">
         <v>0</v>
       </c>
@@ -5399,6 +6018,7 @@
       <c r="D20" s="1">
         <v>8</v>
       </c>
+      <c r="E20" s="1"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
@@ -5428,51 +6048,51 @@
         <v>4.45</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B29" s="1">
-        <v>0</v>
-      </c>
-      <c r="C29" s="1">
-        <v>3</v>
-      </c>
-      <c r="D29" s="1">
-        <v>4</v>
-      </c>
-      <c r="E29" s="1">
-        <v>5</v>
-      </c>
-    </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>4</v>
-      </c>
       <c r="B30" s="1">
         <v>0</v>
       </c>
       <c r="C30" s="1">
-        <v>6.8</v>
+        <v>3</v>
       </c>
       <c r="D30" s="1">
-        <v>8.25</v>
+        <v>4</v>
       </c>
       <c r="E30" s="1">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B31" s="1">
         <v>0</v>
       </c>
       <c r="C31" s="1">
+        <v>6.8</v>
+      </c>
+      <c r="D31" s="1">
+        <v>8.25</v>
+      </c>
+      <c r="E31" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>0</v>
+      </c>
+      <c r="B32" s="1">
+        <v>0</v>
+      </c>
+      <c r="C32" s="1">
         <v>1</v>
       </c>
-      <c r="D31" s="1">
+      <c r="D32" s="1">
         <v>4.5999999999999996</v>
       </c>
-      <c r="E31" s="1">
+      <c r="E32" s="1">
         <v>5.6</v>
       </c>
     </row>
